--- a/dhash検証.xlsx
+++ b/dhash検証.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taka/Documents/Projects/Vagrant/phash_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFFF703C-AE40-8749-B972-36B2516D86FE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{969C9F33-10DC-6745-9077-0DDCCA746485}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5720" yWindow="460" windowWidth="21540" windowHeight="13960" xr2:uid="{F3A14836-F340-9D48-A04E-DCB2285653AC}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
   <si>
     <t>21a161c4c8c8d8d8</t>
   </si>
@@ -462,6 +462,59 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>ユメカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dhashの取得処理は下の画像二枚分でも1秒以下。</t>
+    <rPh sb="6" eb="8">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショリハ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>シタノ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニマイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ビョウイカ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>類似度の計算処理は画像4セット分でも1秒以下。</t>
+    <rPh sb="0" eb="3">
+      <t>ルイジドノ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケンサンショリハ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ブンデモ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ビョウイカ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1475,8 +1528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01BC77E4-46F2-984E-86F8-A418A687825A}">
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1525,6 +1578,9 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="31">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
       <c r="H11" s="2" t="s">
         <v>21</v>
       </c>
@@ -1583,6 +1639,11 @@
     <row r="22" spans="1:8">
       <c r="H22" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="H24" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:8">
